--- a/alipostaci2001/evidence.xlsx
+++ b/alipostaci2001/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\duygu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId3"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -136,10 +118,55 @@
     <t>uptick1p6euqmdsqnyfy2rkmh32n3m6tukdlvlfd5uyx3</t>
   </si>
   <si>
+    <t>omniflix1h8uj22du0ka3ylq6rnx00cupey9y6e4jcrpgdd</t>
+  </si>
+  <si>
     <t>mcb2001#6827</t>
   </si>
   <si>
-    <t>omniflix1h8uj22du0ka3ylq6rnx00cupey9y6e4jcrpgdd</t>
+    <t>cosmos</t>
+  </si>
+  <si>
+    <t>71D776C367DE68C6FDA4F8AA9C4E55873077DFFE42209F644084C7DAE5752C60</t>
+  </si>
+  <si>
+    <t>37D9BFABC29228DFCDF4F31265B6FB0442880C02E04D6BE729D75C00F87A4889</t>
+  </si>
+  <si>
+    <t>11583CE4F03B2EA78D206C4C7A80E0B31C99A39CFD291E9E04606B8A94DD7EA1</t>
+  </si>
+  <si>
+    <t>2C1D6737792993EA48AA204358BF883B6A40CA5389A938189F7D20D7CB474389</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>23713C9316380EA9B993A8652257293F00AA55F3F2509BF1A5842866CE389F19</t>
+  </si>
+  <si>
+    <t>07BD4CF339FDE3C5A86D62E18D7F9552F0A5DA83BD8B12C335AE0CB730CDC25C</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>EBC5B407FBDFA4FDFAC9B418477A462E7AD8A97675E295FEC12D3639D74C4495</t>
+  </si>
+  <si>
+    <t>a2001</t>
+  </si>
+  <si>
+    <t>nft1</t>
+  </si>
+  <si>
+    <t>nft2</t>
+  </si>
+  <si>
+    <t>juno1w08zagrzn88efcjq5cq2j06p9zwzwz4g88plc237npxgg5nmp8fq05wkmv</t>
+  </si>
+  <si>
+    <t>ibc/2DDFD528498422B708D94C458E6233F92AD0C20124620F1A0B4605DA695B1896</t>
   </si>
 </sst>
 </file>
@@ -167,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,12 +262,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -617,75 +653,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.571428571428571" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.285714285714285" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.142857142857146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.857142857142854" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="36.285714285714285" customWidth="1"/>
+    <col min="5" max="5" width="36.285714285714285" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.714285714285715" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.571428571428571" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5" ht="15">
-      <c r="E3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1119,11 +1153,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1136,10 +1172,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1384,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1380,14 +1418,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="36.285714285714285" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
@@ -1403,13 +1442,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1424,11 +1474,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
@@ -1449,16 +1502,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1473,13 +1526,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="36.285714285714285" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1498,16 +1551,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1522,13 +1575,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="36.285714285714285" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1547,16 +1600,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1571,12 +1624,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.857142857142858" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
     <col min="3" max="3" width="16.285714285714285" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
@@ -1597,16 +1651,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1625,6 +1679,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
@@ -1648,40 +1737,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/alipostaci2001/evidence.xlsx
+++ b/alipostaci2001/evidence.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId3"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -152,6 +137,159 @@
   </si>
   <si>
     <t>EBC5B407FBDFA4FDFAC9B418477A462E7AD8A97675E295FEC12D3639D74C4495</t>
+  </si>
+  <si>
+    <t>ibc/3C39236FAF86BCC10A8F8696F06348EAA5D4B489F23DBC6AB797934CC36515A1</t>
+  </si>
+  <si>
+    <t>mcbnft1</t>
+  </si>
+  <si>
+    <t>ibc/1D221BA7742665B2C90F894336FEA7A590D76EC1D9ACD1CDAC4F959B424CD473</t>
+  </si>
+  <si>
+    <t>mcbnft2</t>
+  </si>
+  <si>
+    <t>ibc/4762886F5B37CD60FA07E902D298F88CB0B04DE3CF0E97A5CD650432A09A7178</t>
+  </si>
+  <si>
+    <t>mcbnft3</t>
+  </si>
+  <si>
+    <t>ibc/2C209A8BE9D0AEEC8EAEF6D8E1E547456B9D89922E22638DCF1854D267B94CAC</t>
+  </si>
+  <si>
+    <t>mcbnft4</t>
+  </si>
+  <si>
+    <t>ibc/E235A897511CB8F4E35DF2B8D86A6F99D733729B074743B4F56CA9F4EC2EBFF7</t>
+  </si>
+  <si>
+    <t>mcbnft5</t>
+  </si>
+  <si>
+    <t>ibc/0DC5BFB810B0612609D8603C7B67729D8B9037438273015E72B6687F0EDF23FB</t>
+  </si>
+  <si>
+    <t>mcbnft6</t>
+  </si>
+  <si>
+    <t>B64C61D70C292FA04A04907D3649247144DA92A783A4A7BC50C67DCB3650C3B9</t>
+  </si>
+  <si>
+    <t>E07902C37BFD8E139EB5694CE658A086FFE5A2F7798A2138266D8319B7EA9DD7</t>
+  </si>
+  <si>
+    <t>AA4708AD00CF10D4F1B339E9FE2663475785D04BE73D16CD81C99DEDEDDDFD57</t>
+  </si>
+  <si>
+    <t>42E68229DF65E0463E1A9FCB3D6EF6770FE73EA8136F947A4D08AE4917451433</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>781A3319BBD112D54AAC48C112350F887BDEFC2360506BCAD9CCD2DDC5492E3D</t>
+  </si>
+  <si>
+    <t>7F446AF5B4234BD2EB91FBAE1B0C4380382B1BD7131968FA1690489A1A2DC293</t>
+  </si>
+  <si>
+    <t>14D629E2248DAC144B2E3A6657697F7304023558D33D10352F37F8FE38783159</t>
+  </si>
+  <si>
+    <t>90A5ECF32906A3BC4671030B38685448BAC760937BA648A25D8D5F1D4F757304</t>
+  </si>
+  <si>
+    <t>96240A126CD5457AB79FE33A92D365A4BCA14C3146175E221C6B767FA754328D</t>
+  </si>
+  <si>
+    <t>44F76DBB49965EC5A293642FF95E3F66836C8B35E34B2B639B2917707CAFF8FC</t>
+  </si>
+  <si>
+    <t>6072196FEE6726F7DE73D86FEB76D26A46FE3D8E1779D459C2CF0F1C697532FE</t>
+  </si>
+  <si>
+    <t>9140C71785FF13376D23AB0415229935905F2AB1620205F9DCE3749CE64460E5</t>
+  </si>
+  <si>
+    <t>FB3059183AEDB7291DD455E9DF11DB07851094236E5ACF600618DA2292E85613</t>
+  </si>
+  <si>
+    <t>36E9380E2C077A87E9ED0A860A491E2F1782C8B0AF5EB4BCA812C300E02EC8B3</t>
+  </si>
+  <si>
+    <t>D07ABF139C6178FB3776600927589DFA79DB9BE6253A1725D7916BCB75F167A7</t>
+  </si>
+  <si>
+    <t>51DFD07209BE4BCEC5D2D96BCD4E599C8FC7CA22098884AAB5B065390B2E869C</t>
+  </si>
+  <si>
+    <t>1677CDF298E30020DFBC7202872EE1A49E95DB8FB1EBBA64222298B8E8645FAF</t>
+  </si>
+  <si>
+    <t>8E287348C2D17B1A4AAAA7094A1222A024A03F720DB2A5A5CA504CA2ABFA3026</t>
+  </si>
+  <si>
+    <t>3C8FA51183D84436E47F81E4B6E5602FEE856117730DB8DCC51B4A5B3EF5C565</t>
+  </si>
+  <si>
+    <t>A78666AE4EEC359335B7A124820786C222E65C2BB8C18F9CA4D0888A82662EDC</t>
+  </si>
+  <si>
+    <t>231DAEB3D16FA9D85D8CD78E51B69C87CDC0D9761A19DE5D98F983E87E4D30CA</t>
+  </si>
+  <si>
+    <t>94E204270B99E795534DA5488861B4115CB38F939F6803187DB84E8C6FCCF295</t>
+  </si>
+  <si>
+    <t>03DDD68A3E3B0C597DD39D1F2A69A31D7682206D314686EC3F38E11073C61B77</t>
+  </si>
+  <si>
+    <t>3A09F676F1F9F9C9972B9A75FB406E1BE7000C1EE6F86CAFEBF7D9B972227258</t>
+  </si>
+  <si>
+    <t>5FC54BAC79E2A7042D3708F92AC0A42C034ED873AC0F3D86333A2FC2700F8A79</t>
+  </si>
+  <si>
+    <t>AF42023AE25CA21780A473D8F64E2BB48092B8100C3194B832590609100F9C12</t>
+  </si>
+  <si>
+    <t>F95CF652489706FEBC267593794CEC17DA2A41BA07829CA4AA9A1E170A5D4953</t>
+  </si>
+  <si>
+    <t>6DCA24D7B5031BF10C3C272EDA777B9F52A5EB6C6E7F7E5E601C4E6EDE0FB958</t>
+  </si>
+  <si>
+    <t>854344A7EE0914B8357A41D3B42CEB2F3C2E6A43B120EE1B2AA745FEF6A99B25</t>
+  </si>
+  <si>
+    <t>BFEA54F5C65E2BFC350685639140B21BDFF4373BA65CED9C383CF3C1EC5CA2B1</t>
+  </si>
+  <si>
+    <t>4AF5E795E607F53D71D1D4CA9910686A3594C2DCD5473076B69796B818D14103</t>
+  </si>
+  <si>
+    <t>8D5C618DF4821FAE188B26CFCB50616B97966E5BDFC99A0DC9A6A2893FFDC126</t>
+  </si>
+  <si>
+    <t>BCD43145F65314F0393AF62AB61A94AA024830F1B1A7C85A4E289B84C8ACCC73</t>
+  </si>
+  <si>
+    <t>55AC1B9AAF1CE4041AAD1A4C85BB64F26550880522A3F85931FF0A9BAE370E99</t>
+  </si>
+  <si>
+    <t>A75F694DE69E51D6A5324164C7EAE9DB3D511EBE06584F6ED9B8FBD3F71EF470</t>
+  </si>
+  <si>
+    <t>5B965CD8D3CEAD93C02C5084A58BD7873F533190EDBFA5FF1EE27EAAB4D07C9F</t>
   </si>
   <si>
     <t>a2001</t>
@@ -262,7 +400,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,6 +413,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -655,15 +797,17 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.571428571428571" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="36.285714285714285" customWidth="1"/>
-    <col min="5" max="5" width="36.285714285714285" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.571428571428573" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.142857142857142" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.142857142857142" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.714285714285715" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.571428571428571" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.428571428571429" bestFit="1" customWidth="1"/>
@@ -671,54 +815,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -728,426 +872,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1159,20 +883,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
@@ -1183,18 +908,543 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.714285714285715" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
     <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1208,20 +1458,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1234,13 +1514,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
     <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1254,20 +1536,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1384,9 +1696,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1426,7 +1736,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="36.285714285714285" customWidth="1"/>
+    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
@@ -1434,32 +1745,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +1786,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.285714285714285" customWidth="1"/>
-    <col min="2" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
@@ -1491,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1502,16 +1812,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1527,12 +1837,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="36.285714285714285" customWidth="1"/>
+    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1540,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1551,16 +1863,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1893,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="36.285714285714285" customWidth="1"/>
+    <col min="1" max="2" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1589,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1600,16 +1914,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1944,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
+    <col min="1" max="1" width="17.857142857142858" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.285714285714285" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
@@ -1640,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1651,16 +1966,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1675,27 +1990,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="36.285714285714285" customWidth="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +2028,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1720,18 +2040,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/alipostaci2001/evidence.xlsx
+++ b/alipostaci2001/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId3"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>ibc/2DDFD528498422B708D94C458E6233F92AD0C20124620F1A0B4605DA695B1896</t>
+  </si>
+  <si>
+    <t>33E21EEC017AC7E419A5946DC21D702BCF08C537D18746A142DF89E22FFA8FA5</t>
+  </si>
+  <si>
+    <t>04395A7EDEE20A2CBB540C5E4AC8B78D57C1F9B2D73479712C01FDD781C44207</t>
+  </si>
+  <si>
+    <t>A20F316898048289354F90065775737BE1E6E323A3B78F994B99E8652FEF65A3</t>
+  </si>
+  <si>
+    <t>DC506E1B6EDA4526EE0C93B6C13661464F872967319EDBBA25394E2503451C20</t>
   </si>
 </sst>
 </file>
@@ -797,7 +809,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1606,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1608,12 +1622,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.35" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1642,12 +1656,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
